--- a/meta/stores/LocaleSettingStore.xlsx
+++ b/meta/stores/LocaleSettingStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhaino/Desktop/dapanda-front-core/meta/stores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D1330-F622-C442-A01D-3C19640FA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D453AC-2FA0-3B4A-8A51-6D8B6555308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44360" yWindow="6060" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueStore" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>パッケージ</t>
   </si>
@@ -517,17 +517,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>通過です。</t>
-    <rPh sb="0" eb="2">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>"jpy"</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>changeLang</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -563,6 +552,32 @@
   </si>
   <si>
     <t>stores.LocaleSettingStore</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通貨です。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツウカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"JP"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>国コードです</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クニ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"JPY"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1400,6 +1415,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,62 +1457,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1882,8 +1897,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1932,7 +1947,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
@@ -1947,7 +1962,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="11"/>
@@ -1957,10 +1972,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="118"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1972,10 +1987,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="118"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="81" t="s">
         <v>30</v>
       </c>
@@ -1991,11 +2006,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2030,10 +2045,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="123"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2182,22 +2197,22 @@
       <c r="B24" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="116" t="s">
+      <c r="G24" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="116"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
@@ -2205,12 +2220,12 @@
     <row r="25" spans="1:11">
       <c r="A25" s="100"/>
       <c r="B25" s="100"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2268,18 +2283,18 @@
         <v>3</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C28" s="77" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -2291,12 +2306,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="78"/>
+      <c r="B29" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>29</v>
+      </c>
       <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -2474,18 +2497,18 @@
       <c r="B44" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="116" t="s">
+      <c r="D44" s="112"/>
+      <c r="E44" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="116" t="s">
+      <c r="F44" s="115"/>
+      <c r="G44" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="116"/>
+      <c r="H44" s="101"/>
       <c r="I44" s="16"/>
       <c r="J44" s="17"/>
       <c r="K44" s="9"/>
@@ -2493,12 +2516,12 @@
     <row r="45" spans="1:11">
       <c r="A45" s="100"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
       <c r="K45" s="15"/>
@@ -2645,18 +2668,18 @@
       <c r="B57" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="112"/>
+      <c r="E57" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="110"/>
-      <c r="G57" s="116" t="s">
+      <c r="F57" s="115"/>
+      <c r="G57" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="116"/>
+      <c r="H57" s="101"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="9"/>
@@ -2664,12 +2687,12 @@
     <row r="58" spans="1:11">
       <c r="A58" s="100"/>
       <c r="B58" s="100"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
       <c r="I58" s="18"/>
       <c r="J58" s="29"/>
       <c r="K58" s="15"/>
@@ -2903,26 +2926,26 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="101" t="s">
+      <c r="C77" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="110"/>
-      <c r="E77" s="106" t="s">
+      <c r="D77" s="115"/>
+      <c r="E77" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="106" t="s">
+      <c r="F77" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G77" s="112" t="s">
+      <c r="G77" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="H77" s="114" t="s">
+      <c r="H77" s="119" t="s">
         <v>1</v>
       </c>
       <c r="I77" s="16"/>
@@ -2930,14 +2953,14 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="109"/>
-      <c r="B78" s="109"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="115"/>
+      <c r="A78" s="122"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="120"/>
       <c r="I78" s="18"/>
       <c r="J78" s="29"/>
       <c r="K78" s="15"/>
@@ -2947,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" s="85" t="s">
         <v>47</v>
@@ -2957,7 +2980,7 @@
       <c r="F79" s="68"/>
       <c r="G79" s="91"/>
       <c r="H79" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I79" s="92"/>
       <c r="J79" s="28"/>
@@ -2979,7 +3002,7 @@
       <c r="F80" s="68"/>
       <c r="G80" s="91"/>
       <c r="H80" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I80" s="92"/>
       <c r="J80" s="28"/>
@@ -3096,20 +3119,20 @@
       <c r="B90" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="101" t="s">
+      <c r="C90" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="102"/>
-      <c r="E90" s="105" t="s">
+      <c r="D90" s="112"/>
+      <c r="E90" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="106" t="s">
+      <c r="F90" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G90" s="112" t="s">
+      <c r="G90" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="H90" s="114" t="s">
+      <c r="H90" s="119" t="s">
         <v>1</v>
       </c>
       <c r="I90" s="16"/>
@@ -3119,12 +3142,12 @@
     <row r="91" spans="1:11">
       <c r="A91" s="100"/>
       <c r="B91" s="100"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="115"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="123"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="120"/>
       <c r="I91" s="18"/>
       <c r="J91" s="29"/>
       <c r="K91" s="15"/>
@@ -3239,25 +3262,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
     <mergeCell ref="G77:G78"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="G90:G91"/>
@@ -3266,16 +3280,25 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:H45"/>
     <mergeCell ref="G57:H58"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
